--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value423.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value423.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9833248209879301</v>
+        <v>1.945574641227722</v>
       </c>
       <c r="B1">
-        <v>1.445995053823402</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.470010088806415</v>
+        <v>2.230738162994385</v>
       </c>
       <c r="D1">
-        <v>2.768966456585194</v>
+        <v>1.422735214233398</v>
       </c>
       <c r="E1">
-        <v>1.375258904676331</v>
+        <v>1.153838992118835</v>
       </c>
     </row>
   </sheetData>
